--- a/SOC_Day.xlsx
+++ b/SOC_Day.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Battery State of Charge (Plant 9209949):</t>
   </si>
@@ -25,682 +25,643 @@
     <t>State of Charge(%)</t>
   </si>
   <si>
-    <t>2023-03-11T00:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T00:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T00:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T00:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T00:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T00:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T00:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T00:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T00:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T00:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T00:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T01:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T02:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T03:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T04:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T05:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T06:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T07:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T08:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T09:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T10:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T11:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T12:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T13:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T14:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T15:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T16:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T17:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-11T18:50:00</t>
+    <t>2023-03-14T00:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T14:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T15:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T16:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T17:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T17:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T17:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T17:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T17:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T17:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T17:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T17:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T17:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T17:45:00</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1080,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>57.99999999999999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1088,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>57.99999999999999</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1096,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>57.99999999999999</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1104,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>57.99999999999999</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1112,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>56.99999999999999</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1120,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>56.99999999999999</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1128,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>56.99999999999999</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1136,7 +1097,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>56.00000000000001</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1144,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>56.00000000000001</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1152,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>56.00000000000001</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1160,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>56.00000000000001</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1168,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>55.00000000000001</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1176,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>55.00000000000001</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1184,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>55.00000000000001</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1192,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1200,7 +1161,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1208,7 +1169,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1216,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1224,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1232,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1240,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1248,7 +1209,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1256,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1264,7 +1225,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1272,7 +1233,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1280,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1288,7 +1249,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1296,7 +1257,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1304,7 +1265,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1312,7 +1273,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1320,7 +1281,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1328,7 +1289,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1336,7 +1297,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1344,7 +1305,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1352,7 +1313,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1360,7 +1321,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1368,7 +1329,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1376,7 +1337,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1384,7 +1345,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1392,7 +1353,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1400,7 +1361,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1408,7 +1369,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1416,7 +1377,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1424,7 +1385,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1432,7 +1393,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1440,7 +1401,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1448,7 +1409,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1456,7 +1417,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1464,7 +1425,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1472,7 +1433,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1480,7 +1441,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1488,7 +1449,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1496,7 +1457,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1504,7 +1465,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1512,7 +1473,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1520,7 +1481,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1528,7 +1489,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1536,7 +1497,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1544,7 +1505,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1552,7 +1513,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1560,7 +1521,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1568,7 +1529,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1576,7 +1537,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1584,7 +1545,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1592,7 +1553,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1600,7 +1561,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1608,7 +1569,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1616,7 +1577,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1624,7 +1585,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1632,7 +1593,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1640,7 +1601,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1648,7 +1609,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1656,7 +1617,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1664,7 +1625,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1672,7 +1633,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1680,7 +1641,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1688,7 +1649,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1696,7 +1657,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1704,7 +1665,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1712,7 +1673,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1720,7 +1681,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1728,7 +1689,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1736,7 +1697,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1744,7 +1705,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1752,7 +1713,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1760,7 +1721,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1768,7 +1729,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1776,7 +1737,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1784,7 +1745,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1792,7 +1753,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1800,7 +1761,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1808,7 +1769,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1816,7 +1777,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1824,7 +1785,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1832,7 +1793,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1840,7 +1801,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1848,7 +1809,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1856,7 +1817,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1864,7 +1825,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>55.00000000000001</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1872,7 +1833,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>56.99999999999999</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1880,7 +1841,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>57.99999999999999</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1888,7 +1849,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1896,7 +1857,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1904,7 +1865,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1912,7 +1873,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1920,7 +1881,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1928,7 +1889,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1936,7 +1897,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1944,7 +1905,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1952,7 +1913,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1960,7 +1921,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1968,7 +1929,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1976,7 +1937,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1984,7 +1945,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1992,7 +1953,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2000,7 +1961,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2008,7 +1969,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2016,7 +1977,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2024,7 +1985,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2032,7 +1993,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2040,7 +2001,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2048,7 +2009,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2056,7 +2017,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>90</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2064,7 +2025,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2072,7 +2033,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2080,7 +2041,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>96</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2088,7 +2049,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>96</v>
+        <v>55.00000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2096,7 +2057,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>96</v>
+        <v>57.99999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2104,7 +2065,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2112,7 +2073,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2120,7 +2081,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2128,7 +2089,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2136,7 +2097,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2144,7 +2105,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2152,7 +2113,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2160,7 +2121,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2168,7 +2129,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2176,7 +2137,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2184,7 +2145,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2192,7 +2153,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2200,7 +2161,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2208,7 +2169,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2216,7 +2177,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2224,7 +2185,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2232,7 +2193,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2240,7 +2201,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2248,7 +2209,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2256,7 +2217,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2264,7 +2225,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2272,7 +2233,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2280,7 +2241,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2288,7 +2249,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2296,7 +2257,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2304,7 +2265,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2312,7 +2273,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2320,7 +2281,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2328,7 +2289,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2336,7 +2297,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2344,7 +2305,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2352,7 +2313,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2360,7 +2321,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2696,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2704,7 +2665,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2712,7 +2673,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2720,7 +2681,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2728,7 +2689,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2736,7 +2697,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2744,7 +2705,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2752,7 +2713,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2760,7 +2721,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2768,111 +2729,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
-        <v>216</v>
-      </c>
-      <c r="B216">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>217</v>
-      </c>
-      <c r="B217">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
-        <v>218</v>
-      </c>
-      <c r="B218">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
-        <v>219</v>
-      </c>
-      <c r="B219">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>221</v>
-      </c>
-      <c r="B221">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
-        <v>222</v>
-      </c>
-      <c r="B222">
         <v>92</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>223</v>
-      </c>
-      <c r="B223">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
-        <v>224</v>
-      </c>
-      <c r="B224">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>225</v>
-      </c>
-      <c r="B225">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>226</v>
-      </c>
-      <c r="B226">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>227</v>
-      </c>
-      <c r="B227">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>228</v>
-      </c>
-      <c r="B228">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/SOC_Day.xlsx
+++ b/SOC_Day.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
-  <si>
-    <t>Battery State of Charge (Plant 9209949):</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+  <si>
+    <t>Battery State of Charge (Plant 5340310):</t>
   </si>
   <si>
     <t>Hours</t>
@@ -25,643 +25,730 @@
     <t>State of Charge(%)</t>
   </si>
   <si>
-    <t>2023-03-14T00:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T14:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T15:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T16:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T17:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T17:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T17:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T17:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T17:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T17:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T17:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T17:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T17:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T17:45:00</t>
+    <t>2023-04-11T00:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T20:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T20:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T20:10:00</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1625,7 +1712,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1673,7 +1760,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1681,7 +1768,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1689,7 +1776,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1697,7 +1784,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1705,7 +1792,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1713,7 +1800,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1721,7 +1808,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1729,7 +1816,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1737,7 +1824,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1745,7 +1832,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1761,7 +1848,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1769,7 +1856,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1777,7 +1864,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1785,7 +1872,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1793,7 +1880,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1801,7 +1888,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1809,7 +1896,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1817,7 +1904,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1825,7 +1912,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1833,7 +1920,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1841,7 +1928,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1849,7 +1936,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1857,7 +1944,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1865,7 +1952,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1873,7 +1960,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1881,7 +1968,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1889,7 +1976,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>33</v>
+        <v>56.00000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1897,7 +1984,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>34</v>
+        <v>57.99999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1905,7 +1992,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1913,7 +2000,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1921,7 +2008,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1929,7 +2016,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1937,7 +2024,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1945,7 +2032,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1953,7 +2040,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1961,7 +2048,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1969,7 +2056,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1977,7 +2064,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1985,7 +2072,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1993,7 +2080,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2001,7 +2088,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2009,7 +2096,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2017,7 +2104,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2025,7 +2112,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2033,7 +2120,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2041,7 +2128,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2049,7 +2136,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>55.00000000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2057,7 +2144,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>57.99999999999999</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2065,7 +2152,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2073,7 +2160,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2081,7 +2168,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2089,7 +2176,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2097,7 +2184,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2105,7 +2192,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2113,7 +2200,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2121,7 +2208,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2129,7 +2216,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2137,7 +2224,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2145,7 +2232,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2153,7 +2240,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2161,7 +2248,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2169,7 +2256,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2177,7 +2264,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2185,7 +2272,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2193,7 +2280,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2201,7 +2288,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2209,7 +2296,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2217,7 +2304,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2225,7 +2312,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2233,7 +2320,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2241,7 +2328,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2249,7 +2336,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2257,7 +2344,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2265,7 +2352,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2273,7 +2360,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2281,7 +2368,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2289,7 +2376,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2297,7 +2384,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2305,7 +2392,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2313,7 +2400,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2321,7 +2408,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2585,7 +2672,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2593,7 +2680,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2601,7 +2688,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2609,7 +2696,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2617,7 +2704,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2625,7 +2712,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2633,7 +2720,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2641,7 +2728,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2649,7 +2736,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2657,7 +2744,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2665,7 +2752,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2673,7 +2760,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2681,7 +2768,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2689,7 +2776,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2705,7 +2792,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2713,7 +2800,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2721,7 +2808,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2730,6 +2817,238 @@
       </c>
       <c r="B215">
         <v>92</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/SOC_Day.xlsx
+++ b/SOC_Day.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
-  <si>
-    <t>Battery State of Charge (Plant 5340310):</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+  <si>
+    <t>Battery State of Charge (Plant 9209949):</t>
   </si>
   <si>
     <t>Hours</t>
@@ -25,730 +25,706 @@
     <t>State of Charge(%)</t>
   </si>
   <si>
-    <t>2023-04-11T00:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T20:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T20:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T20:10:00</t>
+    <t>2023-04-12T00:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:30:00</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1128,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1136,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1144,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1152,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1160,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1168,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1176,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1184,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1192,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1200,7 +1176,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1208,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1216,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1224,7 +1200,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1232,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1240,7 +1216,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1248,7 +1224,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1256,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1264,7 +1240,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1272,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1280,7 +1256,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1288,7 +1264,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1296,7 +1272,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1304,7 +1280,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1312,7 +1288,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1320,7 +1296,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1328,7 +1304,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1336,7 +1312,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1344,7 +1320,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1352,7 +1328,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1360,7 +1336,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1368,7 +1344,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1376,7 +1352,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1384,7 +1360,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1400,7 +1376,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1408,7 +1384,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1424,7 +1400,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1448,7 +1424,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1512,7 +1488,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1520,7 +1496,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1528,7 +1504,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1536,7 +1512,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1544,7 +1520,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1552,7 +1528,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1560,7 +1536,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1568,7 +1544,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1576,7 +1552,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1584,7 +1560,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1592,7 +1568,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1600,7 +1576,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1608,7 +1584,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1616,7 +1592,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1624,7 +1600,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1632,7 +1608,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1640,7 +1616,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1648,7 +1624,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1656,7 +1632,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1664,7 +1640,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1672,7 +1648,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1680,7 +1656,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1688,7 +1664,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1696,7 +1672,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1704,7 +1680,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1712,7 +1688,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1720,7 +1696,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1728,7 +1704,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1736,7 +1712,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1744,7 +1720,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1752,7 +1728,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1760,7 +1736,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1768,7 +1744,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1776,7 +1752,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1784,7 +1760,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1792,7 +1768,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1800,7 +1776,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1808,7 +1784,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1816,7 +1792,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1824,7 +1800,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1832,7 +1808,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1840,7 +1816,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1848,7 +1824,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1856,7 +1832,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1864,7 +1840,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1872,7 +1848,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1880,7 +1856,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1888,7 +1864,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1896,7 +1872,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1904,7 +1880,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1912,7 +1888,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1920,7 +1896,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1928,7 +1904,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1936,7 +1912,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1944,7 +1920,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1952,7 +1928,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1960,7 +1936,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1968,7 +1944,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1976,7 +1952,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>56.00000000000001</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1984,7 +1960,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>57.99999999999999</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1992,7 +1968,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2000,7 +1976,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2008,7 +1984,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2016,7 +1992,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2024,7 +2000,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2032,7 +2008,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2040,7 +2016,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2048,7 +2024,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2056,7 +2032,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2064,7 +2040,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2072,7 +2048,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2080,7 +2056,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2088,7 +2064,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2096,7 +2072,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2104,7 +2080,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>86</v>
+        <v>56.00000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2112,7 +2088,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>87</v>
+        <v>57.99999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2120,7 +2096,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2128,7 +2104,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2136,7 +2112,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2144,7 +2120,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2152,7 +2128,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2160,7 +2136,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2168,7 +2144,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2176,7 +2152,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2184,7 +2160,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2192,7 +2168,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2200,7 +2176,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2208,7 +2184,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2216,7 +2192,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2224,7 +2200,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2232,7 +2208,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2240,7 +2216,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2248,7 +2224,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2256,7 +2232,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2264,7 +2240,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2272,7 +2248,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2280,7 +2256,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2288,7 +2264,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2296,7 +2272,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2304,7 +2280,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2312,7 +2288,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2320,7 +2296,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2328,7 +2304,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2336,7 +2312,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2344,7 +2320,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2352,7 +2328,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2360,7 +2336,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2368,7 +2344,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2376,7 +2352,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2384,7 +2360,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2392,7 +2368,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2672,7 +2648,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2680,7 +2656,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2688,7 +2664,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2696,7 +2672,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2704,7 +2680,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2712,7 +2688,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2720,7 +2696,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2728,7 +2704,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2736,7 +2712,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2744,7 +2720,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2752,7 +2728,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2760,7 +2736,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2768,7 +2744,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2776,7 +2752,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2784,7 +2760,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2792,7 +2768,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2800,7 +2776,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2808,7 +2784,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2816,7 +2792,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2824,7 +2800,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2832,7 +2808,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2840,7 +2816,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2848,7 +2824,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2856,7 +2832,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2864,7 +2840,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2872,7 +2848,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2880,7 +2856,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2888,7 +2864,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2904,7 +2880,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2928,7 +2904,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2968,7 +2944,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2985,70 +2961,6 @@
       </c>
       <c r="B236">
         <v>81</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>237</v>
-      </c>
-      <c r="B237">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>238</v>
-      </c>
-      <c r="B238">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>239</v>
-      </c>
-      <c r="B239">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>240</v>
-      </c>
-      <c r="B240">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>241</v>
-      </c>
-      <c r="B241">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
-        <v>242</v>
-      </c>
-      <c r="B242">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
-        <v>243</v>
-      </c>
-      <c r="B243">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
